--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\eclipse-workspacenew\SeleniumPracticeExamples\data\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -70,12 +70,16 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>100000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,8 +429,8 @@
       <c r="D2">
         <v>35</v>
       </c>
-      <c r="E2">
-        <v>90000</v>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\padal\eclipse-workspacenew\SeleniumPracticeExamples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D10B85-CF2F-45FF-9CC6-5A4F2AB6F88B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07117A3C-486D-44D0-91E0-ED8999166AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,7 +80,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,4 +504,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268E283-BA0A-4E66-90E2-1E6BAD37B7DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>